--- a/合同/供销合同/园林机械厂-钢材供销合同 20210108.xlsx
+++ b/合同/供销合同/园林机械厂-钢材供销合同 20210108.xlsx
@@ -191,7 +191,7 @@
     <t>电    话：137 0563 7192</t>
   </si>
   <si>
-    <t>传    真：</t>
+    <t>传    真：139 0563 4952</t>
   </si>
   <si>
     <t>传    真：0563-2022218</t>
@@ -227,9 +227,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
@@ -282,28 +282,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,16 +296,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,16 +326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,8 +341,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -379,27 +379,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,15 +403,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,6 +431,30 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -446,7 +470,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,31 +548,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,43 +578,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,66 +615,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,15 +798,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -818,6 +809,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,8 +839,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -857,11 +859,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,10 +873,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -885,133 +885,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1840,8 +1840,8 @@
   <sheetPr/>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
